--- a/biology/Botanique/Coleosporium_tussilaginis/Coleosporium_tussilaginis.xlsx
+++ b/biology/Botanique/Coleosporium_tussilaginis/Coleosporium_tussilaginis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coleosporium tussilaginis est une espèce de champignons de la famille des Coleosporiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle de vie se compose de cinq étapes, qui se déroulent sur deux plantes hôtes différentes. Sur une plante hôte, comme le tussilage, se forment des télies, des basidiospores et des urédies et sur l'autre plante hôte, uniquement sur des pins comme le pin sylvestre, des spermogonies et des écidies.
 La télie est la spore de repos colorée à paroi épaisse, qui se forme dans le télium (corps de fructification) à la fin de l'été et de l'automne. La télie se forme juste avant la mort de la plante hôte. La téleutospore pédonculée est bicellulaire et hétérothallique. Au printemps, la téleutospore germe et forme une baside sur laquelle se forme la basidiospore.
@@ -545,9 +559,11 @@
           <t>Parasitisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coleosporium tussilaginis a pour plante hôte pour les spermogonies et les écidies Pinus mugo, Pinus nigra, Pinus pinaster, Pinus sylvestris et pour les télies et les urédies Campanula glomerata, Campanula lactiflora, Campanula lyrata (sv), Campanula olympica (sv), Campanula rapunculoides, Campanula trachelium, Chrysophthalmum dichotomum, Emilia coccinea, Euryops acraeus (en), Euphrasia hirtella, Euphrasia pectinata (sv), Jacobaea aquatica, Michauxia campanuloides, Michauxia tchiihatchefii, Pedicularis comosa, Rhinanthus angustifolius, Rhinanthus minor, Senecio doronicum , Tussilago farfara[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coleosporium tussilaginis a pour plante hôte pour les spermogonies et les écidies Pinus mugo, Pinus nigra, Pinus pinaster, Pinus sylvestris et pour les télies et les urédies Campanula glomerata, Campanula lactiflora, Campanula lyrata (sv), Campanula olympica (sv), Campanula rapunculoides, Campanula trachelium, Chrysophthalmum dichotomum, Emilia coccinea, Euryops acraeus (en), Euphrasia hirtella, Euphrasia pectinata (sv), Jacobaea aquatica, Michauxia campanuloides, Michauxia tchiihatchefii, Pedicularis comosa, Rhinanthus angustifolius, Rhinanthus minor, Senecio doronicum , Tussilago farfara.
 </t>
         </is>
       </c>
